--- a/network_data/metrics.xlsx
+++ b/network_data/metrics.xlsx
@@ -14,16 +14,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t xml:space="preserve">Predicted weights
 </t>
   </si>
   <si>
     <t>Equal Weights</t>
-  </si>
-  <si>
-    <t>simulation condition</t>
   </si>
   <si>
     <t>Name</t>
@@ -41,34 +38,16 @@
     <t>Throughput ( bytes per second)</t>
   </si>
   <si>
-    <t>number of FE</t>
-  </si>
-  <si>
-    <t>max bw(mbps)</t>
-  </si>
-  <si>
-    <t>min bw(mbps)</t>
-  </si>
-  <si>
-    <t>min delay(ms)</t>
-  </si>
-  <si>
-    <t>max delay(ms)</t>
-  </si>
-  <si>
-    <t>time (mins)</t>
-  </si>
-  <si>
-    <t>mice flows</t>
-  </si>
-  <si>
-    <t>elephant flows</t>
-  </si>
-  <si>
     <t xml:space="preserve">nyc </t>
   </si>
   <si>
     <t>star</t>
+  </si>
+  <si>
+    <t>abeline</t>
+  </si>
+  <si>
+    <t>fat_tree</t>
   </si>
 </sst>
 </file>
@@ -76,9 +55,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -90,24 +69,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -115,7 +100,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -130,7 +115,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -145,39 +161,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -188,51 +212,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -243,43 +222,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -291,139 +396,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,6 +431,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -467,17 +455,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,28 +469,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,8 +493,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -539,148 +518,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1013,13 +992,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A5:A6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14.25" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="8.890625" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="15.9296875" customWidth="1"/>
@@ -1047,9 +1026,7 @@
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>2</v>
-      </c>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1059,59 +1036,32 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
         <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>5809.65845129807</v>
@@ -1134,7 +1084,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1416.44965430769</v>
@@ -1153,6 +1103,52 @@
       </c>
       <c r="G4">
         <v>2228013.58113207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>4428.93760841176</v>
+      </c>
+      <c r="C5">
+        <v>6991.7557188732</v>
+      </c>
+      <c r="D5">
+        <v>2720180.36666666</v>
+      </c>
+      <c r="E5">
+        <v>4875.58590027451</v>
+      </c>
+      <c r="F5">
+        <v>8050.9064551928</v>
+      </c>
+      <c r="G5">
+        <v>2662520.44705882</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>1210.65606991617</v>
+      </c>
+      <c r="C6">
+        <v>5032.5582686568</v>
+      </c>
+      <c r="D6">
+        <v>1595664.3659375</v>
+      </c>
+      <c r="E6">
+        <v>832.622708250438</v>
+      </c>
+      <c r="F6">
+        <v>3091.86519236395</v>
+      </c>
+      <c r="G6">
+        <v>1539955.0490625</v>
       </c>
     </row>
   </sheetData>
